--- a/curator-annotations/Phenotype_Annotations/Phenotype_annotation_SEP_22_2022.xlsx
+++ b/curator-annotations/Phenotype_Annotations/Phenotype_annotation_SEP_22_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rjd727/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C50B1E3-092D-274C-B069-508D5F6CA09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE63BDC-CE11-4946-A2F8-93382C29DDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3360" windowWidth="34940" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="3420" windowWidth="34940" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
   <si>
     <t>Strain ID</t>
   </si>
@@ -55,25 +55,10 @@
     <t>robert-dodson@northwestern.edu</t>
   </si>
   <si>
-    <t>DDASSAY:0000030</t>
-  </si>
-  <si>
-    <t>Western blot</t>
-  </si>
-  <si>
     <t>PMID:36106016</t>
   </si>
   <si>
     <t>DBS0351317</t>
-  </si>
-  <si>
-    <t>DDPHENO:0001344</t>
-  </si>
-  <si>
-    <t>decreased protein phosphorylation</t>
-  </si>
-  <si>
-    <t>In pkbA-/pkgB- cells, decreased Scar phosphorylation</t>
   </si>
   <si>
     <t>DBS0351316</t>
@@ -1382,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="177" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1435,25 +1420,31 @@
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>10</v>
@@ -1461,31 +1452,31 @@
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>10</v>
@@ -1493,31 +1484,31 @@
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>10</v>
@@ -1525,31 +1516,31 @@
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>10</v>
@@ -1557,10 +1548,10 @@
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -1569,19 +1560,19 @@
         <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>10</v>
@@ -1589,31 +1580,31 @@
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>10</v>
@@ -1621,67 +1612,38 @@
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J10" s="3"/>
@@ -1692,20 +1654,16 @@
     <row r="12" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J13" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{26BBF950-A79C-AC43-8DB8-E7F8A7DCC962}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{6AE9EAEA-DA86-B247-A28C-32628075FE7E}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{6281C9BC-5AF2-AE4E-8D2C-475700610FD2}"/>
-    <hyperlink ref="J5" r:id="rId4" xr:uid="{4365BB29-A91E-284E-AF7A-2785C57EBFFC}"/>
-    <hyperlink ref="J6" r:id="rId5" xr:uid="{B4D5B675-9638-C24C-B70C-6696DFFB3330}"/>
-    <hyperlink ref="J7" r:id="rId6" xr:uid="{97A70D24-1999-4C41-8B5A-A953DE39DA35}"/>
-    <hyperlink ref="J8" r:id="rId7" xr:uid="{D3BADB9D-BC92-5A4A-9E90-FCD723D54C5E}"/>
-    <hyperlink ref="J9" r:id="rId8" xr:uid="{3C7BA855-85E2-3F41-A0DA-8DA66CCDCFF3}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{6AE9EAEA-DA86-B247-A28C-32628075FE7E}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{6281C9BC-5AF2-AE4E-8D2C-475700610FD2}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{4365BB29-A91E-284E-AF7A-2785C57EBFFC}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{B4D5B675-9638-C24C-B70C-6696DFFB3330}"/>
+    <hyperlink ref="J6" r:id="rId5" xr:uid="{97A70D24-1999-4C41-8B5A-A953DE39DA35}"/>
+    <hyperlink ref="J7" r:id="rId6" xr:uid="{D3BADB9D-BC92-5A4A-9E90-FCD723D54C5E}"/>
+    <hyperlink ref="J8" r:id="rId7" xr:uid="{3C7BA855-85E2-3F41-A0DA-8DA66CCDCFF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="72" orientation="portrait"/>
